--- a/pubmed_OPT_results_Q1-Q4.xlsx
+++ b/pubmed_OPT_results_Q1-Q4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t xml:space="preserve">All Queries are UA (Uncompressed Array)</t>
   </si>
@@ -113,25 +113,25 @@
     <t xml:space="preserve">Term IDs for Q3,Q4</t>
   </si>
   <si>
-    <t xml:space="preserve">90725,1570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90725,2584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1570,2584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4446,535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4446,1478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">535,1478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7608,3646</t>
+    <t xml:space="preserve">1570, 2584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4446, 1478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4446, 535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">535, 1478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7608, 3646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90725, 1570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90725, 2584</t>
   </si>
   <si>
     <t xml:space="preserve">Mesh + supplemental</t>
@@ -140,31 +140,28 @@
     <t xml:space="preserve">Trial 4 (ms)</t>
   </si>
   <si>
-    <t xml:space="preserve">Avg of 5 trials (slowest and fastest thrown out) (ms)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Term ID pairs for Q3,Q4</t>
   </si>
   <si>
-    <t xml:space="preserve">879,254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">879,7041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">254,7041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1412,10350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10350,17630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">231,4366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1130,2994</t>
+    <t xml:space="preserve">10350, 17630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1130, 2994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1412, 10350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231, 4366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">254, 7041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">879, 254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">879, 7041</t>
   </si>
 </sst>
 </file>
@@ -292,7 +289,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -366,10 +363,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -464,21 +457,21 @@
   </sheetPr>
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F63" activeCellId="0" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.3724489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.0357142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="12.3724489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.2091836734694"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.4540816326531"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.1020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="12.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.780612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4795918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="12.780612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.5867346938776"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.9387755102041"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="50.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="12.780612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -639,36 +632,29 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="n">
-        <f aca="false">(177.164+176.575+176.588)/3</f>
-        <v>176.775666666667</v>
+        <v>209.793</v>
       </c>
       <c r="C14" s="5" t="n">
-        <f aca="false">(449.472+449.212+448.511)/3</f>
-        <v>449.065</v>
+        <v>571.082</v>
       </c>
       <c r="D14" s="5" t="n">
-        <f aca="false">(305.715+306.625+306.141)/3</f>
-        <v>306.160333333333</v>
+        <v>382.152</v>
       </c>
       <c r="E14" s="5" t="n">
-        <f aca="false">(341.391+340.294+342.225)/3</f>
-        <v>341.303333333333</v>
+        <v>420.482</v>
       </c>
       <c r="F14" s="5" t="n">
-        <f aca="false">(357.396+356.486+358.55)/3</f>
-        <v>357.477333333333</v>
+        <v>450.986</v>
       </c>
       <c r="G14" s="6" t="n">
-        <f aca="false">(63.6883+63.4939+63.5774)/3</f>
-        <v>63.5865333333333</v>
+        <v>66.7655</v>
       </c>
       <c r="H14" s="5" t="n">
-        <f aca="false">(263.496+263.495+262.93)/3</f>
-        <v>263.307</v>
+        <v>322.145</v>
       </c>
       <c r="I14" s="7" t="n">
         <f aca="false">SUM(B14:H14)/7</f>
-        <v>279.667885714286</v>
+        <v>346.200785714286</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -676,27 +662,29 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="n">
-        <f aca="false">(304.717+304.769+305.466)/3</f>
-        <v>304.984</v>
+        <v>310.513</v>
       </c>
       <c r="C15" s="5" t="n">
-        <f aca="false">(861.215+858.852+862.732)/3</f>
-        <v>860.933</v>
+        <v>887.821</v>
       </c>
       <c r="D15" s="5" t="n">
-        <f aca="false">(568.676+569.81+569.067)/3</f>
-        <v>569.184333333333</v>
+        <v>585.499</v>
       </c>
       <c r="E15" s="5" t="n">
-        <f aca="false">(620.544+620.884+620.507)/3</f>
-        <v>620.645</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
+        <v>643.639</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>695.478</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>78.2492</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>486.126</v>
+      </c>
       <c r="I15" s="7" t="n">
         <f aca="false">SUM(B15:H15)/7</f>
-        <v>336.53519047619</v>
+        <v>526.760742857143</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,18 +692,29 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="n">
-        <f aca="false">(260.422+260.055+260.437)/3</f>
-        <v>260.304666666667</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
+        <v>262.285</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>546.912</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>377.595</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>380.816</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>408.446</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>78.3606</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>345.466</v>
+      </c>
       <c r="I16" s="7" t="n">
         <f aca="false">SUM(B16:H16)/7</f>
-        <v>37.186380952381</v>
+        <v>342.840085714286</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,18 +722,29 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="n">
-        <f aca="false">(163.704+161.198+163.949)/3</f>
-        <v>162.950333333333</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="5"/>
+        <v>164.437</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>401.546</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>269.384</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>294.461</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>363.71</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>80.6611</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>269.251</v>
+      </c>
       <c r="I17" s="7" t="n">
         <f aca="false">SUM(B17:H17)/7</f>
-        <v>23.2786190476191</v>
+        <v>263.350014285714</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -746,73 +756,126 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="7" t="n">
-        <f aca="false">SUM(B18:H18)/7</f>
-        <v>0</v>
-      </c>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="B19" s="5" t="n">
+        <v>672.393</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>1987.51</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>1270.23</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>1453.98</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>1545.4</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>142.397</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>1104.58</v>
+      </c>
       <c r="I19" s="7" t="n">
         <f aca="false">SUM(B19:H19)/7</f>
-        <v>0</v>
+        <v>1168.07</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="B20" s="5" t="n">
+        <v>770.813</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>2267.99</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>1447.43</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>1658.43</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>1759.14</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>153.503</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>1254.74</v>
+      </c>
       <c r="I20" s="7" t="n">
         <f aca="false">SUM(B20:H20)/7</f>
-        <v>0</v>
+        <v>1330.29228571429</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="B21" s="5" t="n">
+        <v>618.033</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>1410.44</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>919.313</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>952.979</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>1033.68</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>156.255</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>846.179</v>
+      </c>
       <c r="I21" s="7" t="n">
         <f aca="false">SUM(B21:H21)/7</f>
-        <v>0</v>
+        <v>848.125571428572</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="B22" s="5" t="n">
+        <v>351.334</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>947.427</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>602.453</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>682.363</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>856.532</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>160.15</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>590.166</v>
+      </c>
       <c r="I22" s="7" t="n">
         <f aca="false">SUM(B22:H22)/7</f>
-        <v>0</v>
+        <v>598.632142857143</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -824,73 +887,126 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="7" t="n">
-        <f aca="false">SUM(B23:H23)/7</f>
-        <v>0</v>
-      </c>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="B24" s="5" t="n">
+        <v>94.7888</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>27.4337</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>99.3258</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>121.664</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>27.0765</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>64.4021</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>29.057</v>
+      </c>
       <c r="I24" s="7" t="n">
         <f aca="false">SUM(B24:H24)/7</f>
-        <v>0</v>
+        <v>66.2497</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="B25" s="5" t="n">
+        <v>108.321</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>27.7681</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>101.045</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>133.709</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>27.4132</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>64.0998</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>29.1899</v>
+      </c>
       <c r="I25" s="7" t="n">
         <f aca="false">SUM(B25:H25)/7</f>
-        <v>0</v>
+        <v>70.2208571428572</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="B26" s="5" t="n">
+        <v>88.4864</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>27.6191</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>99.0708</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>115.832</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>27.3699</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>64.4091</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <v>29.226</v>
+      </c>
       <c r="I26" s="7" t="n">
         <f aca="false">SUM(B26:H26)/7</f>
-        <v>0</v>
+        <v>64.5733285714286</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="B27" s="5" t="n">
+        <v>79.9008</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>27.3159</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>98.5245</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>104.405</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>27.0915</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>64.4097</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <v>29.3212</v>
+      </c>
       <c r="I27" s="7" t="n">
         <f aca="false">SUM(B27:H27)/7</f>
-        <v>0</v>
+        <v>61.5669428571429</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,73 +1018,126 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="7" t="n">
-        <f aca="false">SUM(B28:H28)/7</f>
-        <v>0</v>
-      </c>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="B29" s="5" t="n">
+        <v>144.735</v>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>2.23264</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>79.6183</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>168.957</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>1.73612</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>36.3999</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>1.67083</v>
+      </c>
       <c r="I29" s="7" t="n">
         <f aca="false">SUM(B29:H29)/7</f>
-        <v>0</v>
+        <v>62.1928271428572</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="B30" s="5" t="n">
+        <v>168.857</v>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>2.6377</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>82.4161</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>190.525</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>2.04281</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>36.9984</v>
+      </c>
+      <c r="H30" s="5" t="n">
+        <v>1.73692</v>
+      </c>
       <c r="I30" s="7" t="n">
         <f aca="false">SUM(B30:H30)/7</f>
-        <v>0</v>
+        <v>69.3162757142857</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="B31" s="5" t="n">
+        <v>137.255</v>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>2.58122</v>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>80.2543</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>161.861</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>1.83168</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>37.0868</v>
+      </c>
+      <c r="H31" s="5" t="n">
+        <v>1.73761</v>
+      </c>
       <c r="I31" s="7" t="n">
         <f aca="false">SUM(B31:H31)/7</f>
-        <v>0</v>
+        <v>60.3725157142857</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="B32" s="5" t="n">
+        <v>99.0735</v>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>2.41487</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>76.2012</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>123.234</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>2.06087</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>37.3675</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <v>1.7754</v>
+      </c>
       <c r="I32" s="7" t="n">
         <f aca="false">SUM(B32:H32)/7</f>
-        <v>0</v>
+        <v>48.8753342857143</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,60 +1245,128 @@
         <v>9</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="16"/>
+      <c r="B39" s="17" t="n">
+        <v>1886.79</v>
+      </c>
+      <c r="C39" s="17" t="n">
+        <v>1808.69</v>
+      </c>
+      <c r="D39" s="17" t="n">
+        <v>378.168</v>
+      </c>
+      <c r="E39" s="17" t="n">
+        <v>2958.72</v>
+      </c>
+      <c r="F39" s="17" t="n">
+        <v>1749.46</v>
+      </c>
+      <c r="G39" s="17" t="n">
+        <v>2132.99</v>
+      </c>
+      <c r="H39" s="17" t="n">
+        <v>1188.58</v>
+      </c>
+      <c r="I39" s="16" t="n">
+        <f aca="false">SUM(B39:H39)/7</f>
+        <v>1729.05685714286</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="16"/>
+      <c r="B40" s="17" t="n">
+        <v>2975.29</v>
+      </c>
+      <c r="C40" s="17" t="n">
+        <v>2847.75</v>
+      </c>
+      <c r="D40" s="17" t="n">
+        <v>590.919</v>
+      </c>
+      <c r="E40" s="17" t="n">
+        <v>4681.65</v>
+      </c>
+      <c r="F40" s="17" t="n">
+        <v>2767.37</v>
+      </c>
+      <c r="G40" s="17" t="n">
+        <v>3363.64</v>
+      </c>
+      <c r="H40" s="17" t="n">
+        <v>1871.37</v>
+      </c>
+      <c r="I40" s="16" t="n">
+        <f aca="false">SUM(B40:H40)/7</f>
+        <v>2728.28414285714</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="16"/>
+      <c r="B41" s="17" t="n">
+        <v>1724.49</v>
+      </c>
+      <c r="C41" s="17" t="n">
+        <v>1816.12</v>
+      </c>
+      <c r="D41" s="17" t="n">
+        <v>359.877</v>
+      </c>
+      <c r="E41" s="17" t="n">
+        <v>2741.31</v>
+      </c>
+      <c r="F41" s="17" t="n">
+        <v>1595.16</v>
+      </c>
+      <c r="G41" s="17" t="n">
+        <v>1927.33</v>
+      </c>
+      <c r="H41" s="17" t="n">
+        <v>1159.56</v>
+      </c>
+      <c r="I41" s="16" t="n">
+        <f aca="false">SUM(B41:H41)/7</f>
+        <v>1617.69242857143</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="16"/>
+      <c r="B42" s="17" t="n">
+        <v>1359.02</v>
+      </c>
+      <c r="C42" s="17" t="n">
+        <v>1338.35</v>
+      </c>
+      <c r="D42" s="17" t="n">
+        <v>301.796</v>
+      </c>
+      <c r="E42" s="17" t="n">
+        <v>2018.17</v>
+      </c>
+      <c r="F42" s="17" t="n">
+        <v>1157.15</v>
+      </c>
+      <c r="G42" s="17" t="n">
+        <v>1304.57</v>
+      </c>
+      <c r="H42" s="17" t="n">
+        <v>789.902</v>
+      </c>
+      <c r="I42" s="16" t="n">
+        <f aca="false">SUM(B42:H42)/7</f>
+        <v>1181.27971428571</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="15"/>
@@ -1146,53 +1383,121 @@
       <c r="A44" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="16"/>
+      <c r="B44" s="17" t="n">
+        <v>6396.46</v>
+      </c>
+      <c r="C44" s="17" t="n">
+        <v>6569.12</v>
+      </c>
+      <c r="D44" s="17" t="n">
+        <v>1388.67</v>
+      </c>
+      <c r="E44" s="17" t="n">
+        <v>10357.5</v>
+      </c>
+      <c r="F44" s="17" t="n">
+        <v>6226.96</v>
+      </c>
+      <c r="G44" s="17" t="n">
+        <v>7207.77</v>
+      </c>
+      <c r="H44" s="17" t="n">
+        <v>4163.23</v>
+      </c>
+      <c r="I44" s="16" t="n">
+        <f aca="false">SUM(B44:H44)/7</f>
+        <v>6044.24428571429</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="16"/>
+      <c r="B45" s="17" t="n">
+        <v>7433.08</v>
+      </c>
+      <c r="C45" s="17" t="n">
+        <v>7598.29</v>
+      </c>
+      <c r="D45" s="17" t="n">
+        <v>1601.32</v>
+      </c>
+      <c r="E45" s="17" t="n">
+        <v>11969.6</v>
+      </c>
+      <c r="F45" s="17" t="n">
+        <v>7224.87</v>
+      </c>
+      <c r="G45" s="17" t="n">
+        <v>8319.05</v>
+      </c>
+      <c r="H45" s="17" t="n">
+        <v>4816.58</v>
+      </c>
+      <c r="I45" s="16" t="n">
+        <f aca="false">SUM(B45:H45)/7</f>
+        <v>6994.68428571429</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="16"/>
+      <c r="B46" s="17" t="n">
+        <v>4276.44</v>
+      </c>
+      <c r="C46" s="17" t="n">
+        <v>4747.92</v>
+      </c>
+      <c r="D46" s="17" t="n">
+        <v>960.814</v>
+      </c>
+      <c r="E46" s="17" t="n">
+        <v>6976.85</v>
+      </c>
+      <c r="F46" s="17" t="n">
+        <v>4135.83</v>
+      </c>
+      <c r="G46" s="17" t="n">
+        <v>4838.83</v>
+      </c>
+      <c r="H46" s="17" t="n">
+        <v>2900.24</v>
+      </c>
+      <c r="I46" s="16" t="n">
+        <f aca="false">SUM(B46:H46)/7</f>
+        <v>4119.56057142857</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="16"/>
+      <c r="B47" s="17" t="n">
+        <v>3219.85</v>
+      </c>
+      <c r="C47" s="17" t="n">
+        <v>3173.36</v>
+      </c>
+      <c r="D47" s="17" t="n">
+        <v>700.103</v>
+      </c>
+      <c r="E47" s="17" t="n">
+        <v>4727.05</v>
+      </c>
+      <c r="F47" s="17" t="n">
+        <v>2649.73</v>
+      </c>
+      <c r="G47" s="17" t="n">
+        <v>3189.83</v>
+      </c>
+      <c r="H47" s="17" t="n">
+        <v>1836.91</v>
+      </c>
+      <c r="I47" s="16" t="n">
+        <f aca="false">SUM(B47:H47)/7</f>
+        <v>2785.26185714286</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="15"/>
@@ -1209,53 +1514,121 @@
       <c r="A49" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="16"/>
+      <c r="B49" s="17" t="n">
+        <v>36.1811</v>
+      </c>
+      <c r="C49" s="17" t="n">
+        <v>113.962</v>
+      </c>
+      <c r="D49" s="17" t="n">
+        <v>33.299</v>
+      </c>
+      <c r="E49" s="17" t="n">
+        <v>13.7457</v>
+      </c>
+      <c r="F49" s="17" t="n">
+        <v>95.1053</v>
+      </c>
+      <c r="G49" s="17" t="n">
+        <v>13.6171</v>
+      </c>
+      <c r="H49" s="17" t="n">
+        <v>61.3459</v>
+      </c>
+      <c r="I49" s="16" t="n">
+        <f aca="false">SUM(B49:H49)/7</f>
+        <v>52.4651571428571</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="16"/>
+      <c r="B50" s="17" t="n">
+        <v>37.4686</v>
+      </c>
+      <c r="C50" s="17" t="n">
+        <v>138.762</v>
+      </c>
+      <c r="D50" s="17" t="n">
+        <v>33.4459</v>
+      </c>
+      <c r="E50" s="17" t="n">
+        <v>13.8475</v>
+      </c>
+      <c r="F50" s="17" t="n">
+        <v>106.814</v>
+      </c>
+      <c r="G50" s="17" t="n">
+        <v>13.7307</v>
+      </c>
+      <c r="H50" s="17" t="n">
+        <v>62.3445</v>
+      </c>
+      <c r="I50" s="16" t="n">
+        <f aca="false">SUM(B50:H50)/7</f>
+        <v>58.0590285714286</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="16"/>
+      <c r="B51" s="17" t="n">
+        <v>35.5706</v>
+      </c>
+      <c r="C51" s="17" t="n">
+        <v>101.038</v>
+      </c>
+      <c r="D51" s="17" t="n">
+        <v>33.561</v>
+      </c>
+      <c r="E51" s="17" t="n">
+        <v>14.1085</v>
+      </c>
+      <c r="F51" s="17" t="n">
+        <v>89.598</v>
+      </c>
+      <c r="G51" s="17" t="n">
+        <v>13.9075</v>
+      </c>
+      <c r="H51" s="17" t="n">
+        <v>61.8585</v>
+      </c>
+      <c r="I51" s="16" t="n">
+        <f aca="false">SUM(B51:H51)/7</f>
+        <v>49.9488714285714</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="16"/>
+      <c r="B52" s="17" t="n">
+        <v>50.191</v>
+      </c>
+      <c r="C52" s="17" t="n">
+        <v>93.3207</v>
+      </c>
+      <c r="D52" s="17" t="n">
+        <v>47.47</v>
+      </c>
+      <c r="E52" s="17" t="n">
+        <v>28.0687</v>
+      </c>
+      <c r="F52" s="17" t="n">
+        <v>93.9502</v>
+      </c>
+      <c r="G52" s="17" t="n">
+        <v>27.8653</v>
+      </c>
+      <c r="H52" s="17" t="n">
+        <v>75.8546</v>
+      </c>
+      <c r="I52" s="16" t="n">
+        <f aca="false">SUM(B52:H52)/7</f>
+        <v>59.5315</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="15"/>
@@ -1272,55 +1645,123 @@
       <c r="A54" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="16"/>
+      <c r="B54" s="17" t="n">
+        <v>44.4222</v>
+      </c>
+      <c r="C54" s="17" t="n">
+        <v>494.074</v>
+      </c>
+      <c r="D54" s="17" t="n">
+        <v>21.7341</v>
+      </c>
+      <c r="E54" s="17" t="n">
+        <v>4.348</v>
+      </c>
+      <c r="F54" s="17" t="n">
+        <v>245.342</v>
+      </c>
+      <c r="G54" s="17" t="n">
+        <v>4.22691</v>
+      </c>
+      <c r="H54" s="17" t="n">
+        <v>54.79</v>
+      </c>
+      <c r="I54" s="16" t="n">
+        <f aca="false">SUM(B54:H54)/7</f>
+        <v>124.133887142857</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="16"/>
+      <c r="B55" s="17" t="n">
+        <v>51.1346</v>
+      </c>
+      <c r="C55" s="17" t="n">
+        <v>618.221</v>
+      </c>
+      <c r="D55" s="17" t="n">
+        <v>22.3279</v>
+      </c>
+      <c r="E55" s="17" t="n">
+        <v>4.48343</v>
+      </c>
+      <c r="F55" s="17" t="n">
+        <v>298.262</v>
+      </c>
+      <c r="G55" s="17" t="n">
+        <v>4.55342</v>
+      </c>
+      <c r="H55" s="17" t="n">
+        <v>56.4752</v>
+      </c>
+      <c r="I55" s="16" t="n">
+        <f aca="false">SUM(B55:H55)/7</f>
+        <v>150.77965</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="16"/>
+      <c r="B56" s="17" t="n">
+        <v>44.3533</v>
+      </c>
+      <c r="C56" s="17" t="n">
+        <v>488.896</v>
+      </c>
+      <c r="D56" s="17" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="E56" s="17" t="n">
+        <v>4.58437</v>
+      </c>
+      <c r="F56" s="17" t="n">
+        <v>246.015</v>
+      </c>
+      <c r="G56" s="17" t="n">
+        <v>4.58095</v>
+      </c>
+      <c r="H56" s="17" t="n">
+        <v>55.2037</v>
+      </c>
+      <c r="I56" s="16" t="n">
+        <f aca="false">SUM(B56:H56)/7</f>
+        <v>123.673331428571</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="16"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="17" t="n">
+        <v>36.1494</v>
+      </c>
+      <c r="C57" s="17" t="n">
+        <v>316.32</v>
+      </c>
+      <c r="D57" s="17" t="n">
+        <v>22.9177</v>
+      </c>
+      <c r="E57" s="17" t="n">
+        <v>4.60181</v>
+      </c>
+      <c r="F57" s="17" t="n">
+        <v>174.59</v>
+      </c>
+      <c r="G57" s="17" t="n">
+        <v>4.42263</v>
+      </c>
+      <c r="H57" s="17" t="n">
+        <v>55.3589</v>
+      </c>
+      <c r="I57" s="16" t="n">
+        <f aca="false">SUM(B57:H57)/7</f>
+        <v>87.7657771428571</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="15"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -1329,61 +1770,61 @@
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
-      <c r="I58" s="19"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="20" t="s">
+      <c r="I58" s="16"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="21" t="n">
+      <c r="B59" s="20" t="n">
         <v>10296795</v>
       </c>
-      <c r="C59" s="21" t="n">
+      <c r="C59" s="20" t="n">
         <v>16966392</v>
       </c>
-      <c r="D59" s="21" t="n">
+      <c r="D59" s="20" t="n">
         <v>17044542</v>
       </c>
-      <c r="E59" s="21" t="n">
+      <c r="E59" s="20" t="n">
         <v>17495979</v>
       </c>
-      <c r="F59" s="21" t="n">
+      <c r="F59" s="20" t="n">
         <v>17996791</v>
       </c>
-      <c r="G59" s="21" t="n">
+      <c r="G59" s="20" t="n">
         <v>18681952</v>
       </c>
-      <c r="H59" s="21" t="n">
+      <c r="H59" s="20" t="n">
         <v>19265035</v>
       </c>
-      <c r="I59" s="21"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="20" t="s">
+      <c r="I59" s="20"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="C60" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="D60" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="E60" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="F60" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="22" t="s">
+      <c r="G60" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G60" s="22" t="s">
+      <c r="H60" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H60" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I60" s="21"/>
+      <c r="I60" s="20"/>
     </row>
     <row r="63" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="64" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/pubmed_OPT_results_Q1-Q4.xlsx
+++ b/pubmed_OPT_results_Q1-Q4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t xml:space="preserve">All Queries are UA (Uncompressed Array)</t>
   </si>
@@ -29,7 +29,7 @@
 Q1-Q4, the first four-out-of-five queries in the paper
 Trials used different IDs to get a more general result
 Trial times are in milliseconds (ms) for Q1-Q4 or seconds (sec)  
-Each trial represents 3 individual runs</t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">Mesh only</t>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t xml:space="preserve">Avg of all trials (ms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old Avg. of Trials</t>
   </si>
   <si>
     <t xml:space="preserve">Q1 – 0 threads</t>
@@ -289,7 +292,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -358,11 +361,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -455,23 +462,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I117"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F63" activeCellId="0" sqref="F63"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.780612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4795918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="12.780612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.5867346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.9387755102041"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="50.8469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="12.780612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.030612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.8112244897959"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -487,7 +495,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -566,7 +574,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -577,7 +585,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -626,125 +634,140 @@
       <c r="I13" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>209.793</v>
+        <v>201.379</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>571.082</v>
+        <v>540.447</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>382.152</v>
+        <v>362.486</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>420.482</v>
+        <v>399.925</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>450.986</v>
+        <v>429.196</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>66.7655</v>
+        <v>65.2719</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>322.145</v>
+        <v>309.688</v>
       </c>
       <c r="I14" s="7" t="n">
         <f aca="false">SUM(B14:H14)/7</f>
-        <v>346.200785714286</v>
+        <v>329.770414285714</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>322.872</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>310.513</v>
+        <v>349.041</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>887.821</v>
+        <v>1005.73</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>585.499</v>
+        <v>659.579</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>643.639</v>
+        <v>716.053</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>695.478</v>
+        <v>787.696</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>78.2492</v>
+        <v>81.2346</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>486.126</v>
+        <v>548.294</v>
       </c>
       <c r="I15" s="7" t="n">
         <f aca="false">SUM(B15:H15)/7</f>
-        <v>526.760742857143</v>
+        <v>592.518228571428</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>468.949</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>262.285</v>
+        <v>292.996</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>546.912</v>
+        <v>606.888</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>377.595</v>
+        <v>422.687</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>380.816</v>
+        <v>409.582</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>408.446</v>
+        <v>454.054</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>78.3606</v>
+        <v>81.347</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>345.466</v>
+        <v>372.507</v>
       </c>
       <c r="I16" s="7" t="n">
         <f aca="false">SUM(B16:H16)/7</f>
-        <v>342.840085714286</v>
+        <v>377.151571428571</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>301.539</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>164.437</v>
+        <v>166.526</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>401.546</v>
+        <v>417.083</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>269.384</v>
+        <v>277.242</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>294.461</v>
+        <v>301.641</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>363.71</v>
+        <v>399.065</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>80.6611</v>
+        <v>81.2287</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>269.251</v>
+        <v>277.767</v>
       </c>
       <c r="I17" s="7" t="n">
         <f aca="false">SUM(B17:H17)/7</f>
-        <v>263.350014285714</v>
+        <v>274.364671428571</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>221.611</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,125 +780,138 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="7"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>672.393</v>
+        <v>648.704</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>1987.51</v>
+        <v>1887.71</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>1270.23</v>
+        <v>1216.09</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1453.98</v>
+        <v>1386.02</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1545.4</v>
+        <v>1472.94</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>142.397</v>
+        <v>139.513</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>1104.58</v>
+        <v>1055.05</v>
       </c>
       <c r="I19" s="7" t="n">
         <f aca="false">SUM(B19:H19)/7</f>
-        <v>1168.07</v>
+        <v>1115.14671428571</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>1171.891</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>770.813</v>
+        <v>760.57</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2267.99</v>
+        <v>2240.83</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1447.43</v>
+        <v>1437.78</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1658.43</v>
+        <v>1638.36</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1759.14</v>
+        <v>1744.63</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>153.503</v>
+        <v>154.923</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1254.74</v>
+        <v>1246.64</v>
       </c>
       <c r="I20" s="7" t="n">
         <f aca="false">SUM(B20:H20)/7</f>
-        <v>1330.29228571429</v>
+        <v>1317.67614285714</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>1281.872</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>618.033</v>
+        <v>617.667</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1410.44</v>
+        <v>1412.95</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>919.313</v>
+        <v>918.269</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>952.979</v>
+        <v>957.51</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1033.68</v>
+        <v>1024.14</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>156.255</v>
+        <v>156.957</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>846.179</v>
+        <v>857.954</v>
       </c>
       <c r="I21" s="7" t="n">
         <f aca="false">SUM(B21:H21)/7</f>
-        <v>848.125571428572</v>
+        <v>849.349571428572</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>792.494</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>351.334</v>
+        <v>344.306</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>947.427</v>
+        <v>919.116</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>602.453</v>
+        <v>597.485</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>682.363</v>
+        <v>643.066</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>856.532</v>
+        <v>843.727</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>160.15</v>
+        <v>154.621</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>590.166</v>
+        <v>578.297</v>
       </c>
       <c r="I22" s="7" t="n">
         <f aca="false">SUM(B22:H22)/7</f>
-        <v>598.632142857143</v>
+        <v>582.945428571429</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>523.44242857</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -888,125 +924,138 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="7"/>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" s="5" t="n">
-        <v>94.7888</v>
+        <v>89.5587</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>27.4337</v>
+        <v>24.9423</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>99.3258</v>
+        <v>91.7148</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>121.664</v>
+        <v>114.837</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>27.0765</v>
+        <v>24.5468</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>64.4021</v>
+        <v>59.3217</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>29.057</v>
+        <v>26.5604</v>
       </c>
       <c r="I24" s="7" t="n">
         <f aca="false">SUM(B24:H24)/7</f>
-        <v>66.2497</v>
+        <v>61.6402428571429</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>42.422</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>108.321</v>
+        <v>103.885</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>27.7681</v>
+        <v>25.1493</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>101.045</v>
+        <v>92.4038</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>133.709</v>
+        <v>129.315</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27.4132</v>
+        <v>24.7603</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>64.0998</v>
+        <v>59.1232</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>29.1899</v>
+        <v>26.5956</v>
       </c>
       <c r="I25" s="7" t="n">
         <f aca="false">SUM(B25:H25)/7</f>
-        <v>70.2208571428572</v>
+        <v>65.8903142857143</v>
+      </c>
+      <c r="J25" s="6" t="n">
+        <v>44.322</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="5" t="n">
-        <v>88.4864</v>
+        <v>85.0066</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>27.6191</v>
+        <v>25.1483</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>99.0708</v>
+        <v>90.7257</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>115.832</v>
+        <v>111.586</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>27.3699</v>
+        <v>24.5975</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>64.4091</v>
+        <v>58.6263</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>29.226</v>
+        <v>26.5625</v>
       </c>
       <c r="I26" s="7" t="n">
         <f aca="false">SUM(B26:H26)/7</f>
-        <v>64.5733285714286</v>
+        <v>60.3218428571429</v>
+      </c>
+      <c r="J26" s="6" t="n">
+        <v>40.1137</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>79.9008</v>
+        <v>73.9134</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>27.3159</v>
+        <v>24.9632</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>98.5245</v>
+        <v>91.3048</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>104.405</v>
+        <v>101.026</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>27.0915</v>
+        <v>24.6011</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>64.4097</v>
+        <v>59.5075</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>29.3212</v>
+        <v>26.5413</v>
       </c>
       <c r="I27" s="7" t="n">
         <f aca="false">SUM(B27:H27)/7</f>
-        <v>61.5669428571429</v>
+        <v>57.4081857142857</v>
+      </c>
+      <c r="J27" s="6" t="n">
+        <v>37.90281</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1019,125 +1068,138 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="7"/>
+      <c r="J28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>144.735</v>
+        <v>136.528</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.23264</v>
+        <v>2.53656</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>79.6183</v>
+        <v>74.091</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>168.957</v>
+        <v>160.092</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.73612</v>
+        <v>2.04787</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>36.3999</v>
+        <v>34.0212</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.67083</v>
+        <v>1.85644</v>
       </c>
       <c r="I29" s="7" t="n">
         <f aca="false">SUM(B29:H29)/7</f>
-        <v>62.1928271428572</v>
+        <v>58.73901</v>
+      </c>
+      <c r="J29" s="6" t="n">
+        <v>115.3811</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>168.857</v>
+        <v>163.823</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.6377</v>
+        <v>2.88142</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>82.4161</v>
+        <v>78.3613</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>190.525</v>
+        <v>184.938</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.04281</v>
+        <v>2.27998</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>36.9984</v>
+        <v>35.7632</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.73692</v>
+        <v>2.0776</v>
       </c>
       <c r="I30" s="7" t="n">
         <f aca="false">SUM(B30:H30)/7</f>
-        <v>69.3162757142857</v>
+        <v>67.1606428571429</v>
+      </c>
+      <c r="J30" s="6" t="n">
+        <v>122.6784</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>137.255</v>
+        <v>136.975</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>2.58122</v>
+        <v>2.88079</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>80.2543</v>
+        <v>76.4466</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>161.861</v>
+        <v>158.764</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1.83168</v>
+        <v>2.23852</v>
       </c>
       <c r="G31" s="5" t="n">
-        <v>37.0868</v>
+        <v>35.6325</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>1.73761</v>
+        <v>2.03413</v>
       </c>
       <c r="I31" s="7" t="n">
         <f aca="false">SUM(B31:H31)/7</f>
-        <v>60.3725157142857</v>
+        <v>59.2816485714286</v>
+      </c>
+      <c r="J31" s="6" t="n">
+        <v>93.952357</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>99.0735</v>
+        <v>97.0221</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>2.41487</v>
+        <v>2.47805</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>76.2012</v>
+        <v>75.0386</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>123.234</v>
+        <v>119.72</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2.06087</v>
+        <v>2.19736</v>
       </c>
       <c r="G32" s="5" t="n">
-        <v>37.3675</v>
+        <v>35.8748</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>1.7754</v>
+        <v>2.02663</v>
       </c>
       <c r="I32" s="7" t="n">
         <f aca="false">SUM(B32:H32)/7</f>
-        <v>48.8753342857143</v>
+        <v>47.7653628571429</v>
+      </c>
+      <c r="J32" s="6" t="n">
+        <v>84.2521</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1150,10 +1212,11 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="6"/>
+      <c r="J33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B34" s="10" t="n">
         <v>10296795</v>
@@ -1177,40 +1240,42 @@
         <v>19265035</v>
       </c>
       <c r="I34" s="11"/>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I35" s="11"/>
+      <c r="J35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I36" s="13"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1233,7 +1298,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>7</v>
@@ -1247,125 +1312,140 @@
       <c r="I38" s="16" t="s">
         <v>10</v>
       </c>
+      <c r="J38" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39" s="17" t="n">
-        <v>1886.79</v>
+        <v>1807.25</v>
       </c>
       <c r="C39" s="17" t="n">
-        <v>1808.69</v>
+        <v>1752.34</v>
       </c>
       <c r="D39" s="17" t="n">
-        <v>378.168</v>
+        <v>391.877</v>
       </c>
       <c r="E39" s="17" t="n">
-        <v>2958.72</v>
+        <v>2828.73</v>
       </c>
       <c r="F39" s="17" t="n">
-        <v>1749.46</v>
+        <v>1690.97</v>
       </c>
       <c r="G39" s="17" t="n">
-        <v>2132.99</v>
+        <v>2039.08</v>
       </c>
       <c r="H39" s="17" t="n">
-        <v>1188.58</v>
+        <v>1163.29</v>
       </c>
       <c r="I39" s="16" t="n">
         <f aca="false">SUM(B39:H39)/7</f>
-        <v>1729.05685714286</v>
+        <v>1667.64814285714</v>
+      </c>
+      <c r="J39" s="17" t="n">
+        <v>1751.58</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B40" s="17" t="n">
-        <v>2975.29</v>
+        <v>3550.19</v>
       </c>
       <c r="C40" s="17" t="n">
-        <v>2847.75</v>
+        <v>3301.53</v>
       </c>
       <c r="D40" s="17" t="n">
-        <v>590.919</v>
+        <v>708.851</v>
       </c>
       <c r="E40" s="17" t="n">
-        <v>4681.65</v>
+        <v>5446.63</v>
       </c>
       <c r="F40" s="17" t="n">
-        <v>2767.37</v>
+        <v>3221.44</v>
       </c>
       <c r="G40" s="17" t="n">
-        <v>3363.64</v>
+        <v>3987.01</v>
       </c>
       <c r="H40" s="17" t="n">
-        <v>1871.37</v>
+        <v>2210.15</v>
       </c>
       <c r="I40" s="16" t="n">
         <f aca="false">SUM(B40:H40)/7</f>
-        <v>2728.28414285714</v>
+        <v>3203.68585714286</v>
+      </c>
+      <c r="J40" s="17" t="n">
+        <v>2600.249</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41" s="17" t="n">
-        <v>1724.49</v>
+        <v>2024.86</v>
       </c>
       <c r="C41" s="17" t="n">
-        <v>1816.12</v>
+        <v>2072.63</v>
       </c>
       <c r="D41" s="17" t="n">
-        <v>359.877</v>
+        <v>423.2</v>
       </c>
       <c r="E41" s="17" t="n">
-        <v>2741.31</v>
+        <v>3134.53</v>
       </c>
       <c r="F41" s="17" t="n">
-        <v>1595.16</v>
+        <v>1816.21</v>
       </c>
       <c r="G41" s="17" t="n">
-        <v>1927.33</v>
+        <v>2245.99</v>
       </c>
       <c r="H41" s="17" t="n">
-        <v>1159.56</v>
+        <v>1354.39</v>
       </c>
       <c r="I41" s="16" t="n">
         <f aca="false">SUM(B41:H41)/7</f>
-        <v>1617.69242857143</v>
+        <v>1867.40142857143</v>
+      </c>
+      <c r="J41" s="17" t="n">
+        <v>1539.83</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B42" s="17" t="n">
-        <v>1359.02</v>
+        <v>1474.81</v>
       </c>
       <c r="C42" s="17" t="n">
-        <v>1338.35</v>
+        <v>1455.14</v>
       </c>
       <c r="D42" s="17" t="n">
-        <v>301.796</v>
+        <v>315.642</v>
       </c>
       <c r="E42" s="17" t="n">
-        <v>2018.17</v>
+        <v>2128.72</v>
       </c>
       <c r="F42" s="17" t="n">
-        <v>1157.15</v>
+        <v>1155.46</v>
       </c>
       <c r="G42" s="17" t="n">
-        <v>1304.57</v>
+        <v>1380.99</v>
       </c>
       <c r="H42" s="17" t="n">
-        <v>789.902</v>
+        <v>854.999</v>
       </c>
       <c r="I42" s="16" t="n">
         <f aca="false">SUM(B42:H42)/7</f>
-        <v>1181.27971428571</v>
+        <v>1252.25157142857</v>
+      </c>
+      <c r="J42" s="17" t="n">
+        <v>1066.35</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1378,125 +1458,138 @@
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
       <c r="I43" s="16"/>
+      <c r="J43" s="17"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" s="17" t="n">
-        <v>6396.46</v>
+        <v>6052.43</v>
       </c>
       <c r="C44" s="17" t="n">
-        <v>6569.12</v>
+        <v>6209.29</v>
       </c>
       <c r="D44" s="17" t="n">
-        <v>1388.67</v>
+        <v>1336.84</v>
       </c>
       <c r="E44" s="17" t="n">
-        <v>10357.5</v>
+        <v>9746.96</v>
       </c>
       <c r="F44" s="17" t="n">
-        <v>6226.96</v>
+        <v>5893.77</v>
       </c>
       <c r="G44" s="17" t="n">
-        <v>7207.77</v>
+        <v>6774.58</v>
       </c>
       <c r="H44" s="17" t="n">
-        <v>4163.23</v>
+        <v>3940.05</v>
       </c>
       <c r="I44" s="16" t="n">
         <f aca="false">SUM(B44:H44)/7</f>
-        <v>6044.24428571429</v>
+        <v>5707.70285714286</v>
+      </c>
+      <c r="J44" s="17" t="n">
+        <v>6223.6857</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45" s="17" t="n">
-        <v>7433.08</v>
+        <v>7457.19</v>
       </c>
       <c r="C45" s="17" t="n">
-        <v>7598.29</v>
+        <v>7602.47</v>
       </c>
       <c r="D45" s="17" t="n">
-        <v>1601.32</v>
+        <v>1622.89</v>
       </c>
       <c r="E45" s="17" t="n">
-        <v>11969.6</v>
+        <v>11983.1</v>
       </c>
       <c r="F45" s="17" t="n">
-        <v>7224.87</v>
+        <v>7232.43</v>
       </c>
       <c r="G45" s="17" t="n">
-        <v>8319.05</v>
+        <v>6360.25</v>
       </c>
       <c r="H45" s="17" t="n">
-        <v>4816.58</v>
+        <v>4837.91</v>
       </c>
       <c r="I45" s="16" t="n">
         <f aca="false">SUM(B45:H45)/7</f>
-        <v>6994.68428571429</v>
+        <v>6728.03428571429</v>
+      </c>
+      <c r="J45" s="17" t="n">
+        <v>6914.8786</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46" s="17" t="n">
-        <v>4276.44</v>
+        <v>4295.73</v>
       </c>
       <c r="C46" s="17" t="n">
-        <v>4747.92</v>
+        <v>4728.93</v>
       </c>
       <c r="D46" s="17" t="n">
-        <v>960.814</v>
+        <v>977.646</v>
       </c>
       <c r="E46" s="17" t="n">
-        <v>6976.85</v>
+        <v>6911.13</v>
       </c>
       <c r="F46" s="17" t="n">
-        <v>4135.83</v>
+        <v>4132.02</v>
       </c>
       <c r="G46" s="17" t="n">
-        <v>4838.83</v>
+        <v>4807.5</v>
       </c>
       <c r="H46" s="17" t="n">
-        <v>2900.24</v>
+        <v>2945.89</v>
       </c>
       <c r="I46" s="16" t="n">
         <f aca="false">SUM(B46:H46)/7</f>
-        <v>4119.56057142857</v>
+        <v>4114.12085714286</v>
+      </c>
+      <c r="J46" s="17" t="n">
+        <v>4091.83929</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B47" s="17" t="n">
-        <v>3219.85</v>
+        <v>3219.83</v>
       </c>
       <c r="C47" s="17" t="n">
-        <v>3173.36</v>
+        <v>3196.93</v>
       </c>
       <c r="D47" s="17" t="n">
-        <v>700.103</v>
+        <v>711.522</v>
       </c>
       <c r="E47" s="17" t="n">
-        <v>4727.05</v>
+        <v>4673.44</v>
       </c>
       <c r="F47" s="17" t="n">
-        <v>2649.73</v>
+        <v>2386.53</v>
       </c>
       <c r="G47" s="17" t="n">
-        <v>3189.83</v>
+        <v>3131.13</v>
       </c>
       <c r="H47" s="17" t="n">
-        <v>1836.91</v>
+        <v>1835.89</v>
       </c>
       <c r="I47" s="16" t="n">
         <f aca="false">SUM(B47:H47)/7</f>
-        <v>2785.26185714286</v>
+        <v>2736.46742857143</v>
+      </c>
+      <c r="J47" s="17" t="n">
+        <v>2657.9591</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,125 +1602,138 @@
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
       <c r="I48" s="16"/>
+      <c r="J48" s="17"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B49" s="17" t="n">
-        <v>36.1811</v>
+        <v>48.8878</v>
       </c>
       <c r="C49" s="17" t="n">
-        <v>113.962</v>
+        <v>123.014</v>
       </c>
       <c r="D49" s="17" t="n">
-        <v>33.299</v>
+        <v>45.2784</v>
       </c>
       <c r="E49" s="17" t="n">
-        <v>13.7457</v>
+        <v>27.1704</v>
       </c>
       <c r="F49" s="17" t="n">
-        <v>95.1053</v>
+        <v>104.264</v>
       </c>
       <c r="G49" s="17" t="n">
-        <v>13.6171</v>
+        <v>26.9602</v>
       </c>
       <c r="H49" s="17" t="n">
-        <v>61.3459</v>
+        <v>71.1491</v>
       </c>
       <c r="I49" s="16" t="n">
         <f aca="false">SUM(B49:H49)/7</f>
-        <v>52.4651571428571</v>
+        <v>63.8177</v>
+      </c>
+      <c r="J49" s="17" t="n">
+        <v>42.57528</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B50" s="17" t="n">
-        <v>37.4686</v>
+        <v>50.9563</v>
       </c>
       <c r="C50" s="17" t="n">
-        <v>138.762</v>
+        <v>148.021</v>
       </c>
       <c r="D50" s="17" t="n">
-        <v>33.4459</v>
+        <v>45.0873</v>
       </c>
       <c r="E50" s="17" t="n">
-        <v>13.8475</v>
+        <v>27.2325</v>
       </c>
       <c r="F50" s="17" t="n">
-        <v>106.814</v>
+        <v>115.462</v>
       </c>
       <c r="G50" s="17" t="n">
-        <v>13.7307</v>
+        <v>27.2235</v>
       </c>
       <c r="H50" s="17" t="n">
-        <v>62.3445</v>
+        <v>71.3398</v>
       </c>
       <c r="I50" s="16" t="n">
         <f aca="false">SUM(B50:H50)/7</f>
-        <v>58.0590285714286</v>
+        <v>69.3317714285714</v>
+      </c>
+      <c r="J50" s="17" t="n">
+        <v>45.37122</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B51" s="17" t="n">
-        <v>35.5706</v>
+        <v>48.7815</v>
       </c>
       <c r="C51" s="17" t="n">
-        <v>101.038</v>
+        <v>110.69</v>
       </c>
       <c r="D51" s="17" t="n">
-        <v>33.561</v>
+        <v>45.1306</v>
       </c>
       <c r="E51" s="17" t="n">
-        <v>14.1085</v>
+        <v>27.2464</v>
       </c>
       <c r="F51" s="17" t="n">
-        <v>89.598</v>
+        <v>97.9314</v>
       </c>
       <c r="G51" s="17" t="n">
-        <v>13.9075</v>
+        <v>27.1434</v>
       </c>
       <c r="H51" s="17" t="n">
-        <v>61.8585</v>
+        <v>71.1455</v>
       </c>
       <c r="I51" s="16" t="n">
         <f aca="false">SUM(B51:H51)/7</f>
-        <v>49.9488714285714</v>
+        <v>61.1526857142857</v>
+      </c>
+      <c r="J51" s="17" t="n">
+        <v>39.47671</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B52" s="17" t="n">
-        <v>50.191</v>
+        <v>47.4433</v>
       </c>
       <c r="C52" s="17" t="n">
-        <v>93.3207</v>
+        <v>89.9884</v>
       </c>
       <c r="D52" s="17" t="n">
-        <v>47.47</v>
+        <v>45.0662</v>
       </c>
       <c r="E52" s="17" t="n">
-        <v>28.0687</v>
+        <v>27.0031</v>
       </c>
       <c r="F52" s="17" t="n">
-        <v>93.9502</v>
+        <v>88.5554</v>
       </c>
       <c r="G52" s="17" t="n">
-        <v>27.8653</v>
+        <v>27.0031</v>
       </c>
       <c r="H52" s="17" t="n">
-        <v>75.8546</v>
+        <v>70.7721</v>
       </c>
       <c r="I52" s="16" t="n">
         <f aca="false">SUM(B52:H52)/7</f>
-        <v>59.5315</v>
+        <v>56.5473714285714</v>
+      </c>
+      <c r="J52" s="17" t="n">
+        <v>35.425657</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1640,125 +1746,138 @@
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
       <c r="I53" s="16"/>
+      <c r="J53" s="17"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B54" s="17" t="n">
-        <v>44.4222</v>
+        <v>43.0322</v>
       </c>
       <c r="C54" s="17" t="n">
-        <v>494.074</v>
+        <v>460.451</v>
       </c>
       <c r="D54" s="17" t="n">
-        <v>21.7341</v>
+        <v>20.3686</v>
       </c>
       <c r="E54" s="17" t="n">
-        <v>4.348</v>
+        <v>4.44555</v>
       </c>
       <c r="F54" s="17" t="n">
-        <v>245.342</v>
+        <v>229.133</v>
       </c>
       <c r="G54" s="17" t="n">
-        <v>4.22691</v>
+        <v>4.37463</v>
       </c>
       <c r="H54" s="17" t="n">
-        <v>54.79</v>
+        <v>51.4347</v>
       </c>
       <c r="I54" s="16" t="n">
         <f aca="false">SUM(B54:H54)/7</f>
-        <v>124.133887142857</v>
+        <v>116.177097142857</v>
+      </c>
+      <c r="J54" s="17" t="n">
+        <v>272.758</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B55" s="17" t="n">
-        <v>51.1346</v>
+        <v>49.7857</v>
       </c>
       <c r="C55" s="17" t="n">
-        <v>618.221</v>
+        <v>605.482</v>
       </c>
       <c r="D55" s="17" t="n">
-        <v>22.3279</v>
+        <v>21.5387</v>
       </c>
       <c r="E55" s="17" t="n">
-        <v>4.48343</v>
+        <v>4.71242</v>
       </c>
       <c r="F55" s="17" t="n">
-        <v>298.262</v>
+        <v>290.51</v>
       </c>
       <c r="G55" s="17" t="n">
-        <v>4.55342</v>
+        <v>4.63721</v>
       </c>
       <c r="H55" s="17" t="n">
-        <v>56.4752</v>
+        <v>54.033</v>
       </c>
       <c r="I55" s="16" t="n">
         <f aca="false">SUM(B55:H55)/7</f>
-        <v>150.77965</v>
+        <v>147.242718571429</v>
+      </c>
+      <c r="J55" s="17" t="n">
+        <v>311.0655</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B56" s="17" t="n">
-        <v>44.3533</v>
+        <v>43.96</v>
       </c>
       <c r="C56" s="17" t="n">
-        <v>488.896</v>
+        <v>496.542</v>
       </c>
       <c r="D56" s="17" t="n">
-        <v>22.08</v>
+        <v>21.5081</v>
       </c>
       <c r="E56" s="17" t="n">
-        <v>4.58437</v>
+        <v>4.68529</v>
       </c>
       <c r="F56" s="17" t="n">
-        <v>246.015</v>
+        <v>245.727</v>
       </c>
       <c r="G56" s="17" t="n">
-        <v>4.58095</v>
+        <v>4.78617</v>
       </c>
       <c r="H56" s="17" t="n">
-        <v>55.2037</v>
+        <v>53.0391</v>
       </c>
       <c r="I56" s="16" t="n">
         <f aca="false">SUM(B56:H56)/7</f>
-        <v>123.673331428571</v>
+        <v>124.321094285714</v>
+      </c>
+      <c r="J56" s="17" t="n">
+        <v>209.080714</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B57" s="17" t="n">
-        <v>36.1494</v>
+        <v>35.6302</v>
       </c>
       <c r="C57" s="17" t="n">
-        <v>316.32</v>
+        <v>217.993</v>
       </c>
       <c r="D57" s="17" t="n">
-        <v>22.9177</v>
+        <v>21.5036</v>
       </c>
       <c r="E57" s="17" t="n">
-        <v>4.60181</v>
+        <v>4.75277</v>
       </c>
       <c r="F57" s="17" t="n">
-        <v>174.59</v>
+        <v>170.653</v>
       </c>
       <c r="G57" s="17" t="n">
-        <v>4.42263</v>
+        <v>4.67183</v>
       </c>
       <c r="H57" s="17" t="n">
-        <v>55.3589</v>
+        <v>51.5455</v>
       </c>
       <c r="I57" s="16" t="n">
         <f aca="false">SUM(B57:H57)/7</f>
-        <v>87.7657771428571</v>
+        <v>72.3928428571429</v>
+      </c>
+      <c r="J57" s="17" t="n">
+        <v>159.7044</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1771,60 +1890,63 @@
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
       <c r="I58" s="16"/>
+      <c r="J58" s="19"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="20" t="n">
+      <c r="A59" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="21" t="n">
         <v>10296795</v>
       </c>
-      <c r="C59" s="20" t="n">
+      <c r="C59" s="21" t="n">
         <v>16966392</v>
       </c>
-      <c r="D59" s="20" t="n">
+      <c r="D59" s="21" t="n">
         <v>17044542</v>
       </c>
-      <c r="E59" s="20" t="n">
+      <c r="E59" s="21" t="n">
         <v>17495979</v>
       </c>
-      <c r="F59" s="20" t="n">
+      <c r="F59" s="21" t="n">
         <v>17996791</v>
       </c>
-      <c r="G59" s="20" t="n">
+      <c r="G59" s="21" t="n">
         <v>18681952</v>
       </c>
-      <c r="H59" s="20" t="n">
+      <c r="H59" s="21" t="n">
         <v>19265035</v>
       </c>
-      <c r="I59" s="20"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="19"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="21" t="s">
+      <c r="A60" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="B60" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="C60" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E60" s="21" t="s">
+      <c r="D60" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F60" s="21" t="s">
+      <c r="E60" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G60" s="21" t="s">
+      <c r="F60" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H60" s="21" t="s">
+      <c r="G60" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="I60" s="20"/>
+      <c r="H60" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" s="21"/>
+      <c r="J60" s="19"/>
     </row>
     <row r="63" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="64" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/pubmed_OPT_results_Q1-Q4.xlsx
+++ b/pubmed_OPT_results_Q1-Q4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -485,23 +485,23 @@
   <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
+      <selection pane="topLeft" activeCell="L49" activeCellId="0" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8724489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.4591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.780612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.0459183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.96428571428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.81122448979592"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.3775510204082"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.40816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="13.7857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.2959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.2142857142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.5459183673469"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4642857142857"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3877551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.13265306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.719387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="14.2908163265306"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -578,36 +578,36 @@
         <v>12</v>
       </c>
       <c r="B5" s="7" t="n">
-        <v>160.553</v>
+        <v>162.327</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>457.482</v>
+        <v>460.756</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>301.75</v>
+        <v>303.803</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>338.552</v>
+        <v>339.822</v>
       </c>
       <c r="F5" s="7" t="n">
-        <v>358.477</v>
+        <v>360.939</v>
       </c>
       <c r="G5" s="8" t="n">
-        <v>41.3829</v>
+        <v>41.61</v>
       </c>
       <c r="H5" s="7" t="n">
-        <v>260.303</v>
+        <v>258.411</v>
       </c>
       <c r="I5" s="9" t="n">
         <f aca="false">SUM(B5:H5)/7</f>
-        <v>274.071414285714</v>
+        <v>275.381142857143</v>
       </c>
       <c r="J5" s="8" t="n">
         <v>322.872</v>
       </c>
       <c r="K5" s="10" t="n">
         <f aca="false">(I5/J5)-1</f>
-        <v>-0.151145301278172</v>
+        <v>-0.147088806532797</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -615,36 +615,36 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="n">
-        <v>313.24</v>
+        <v>305.905</v>
       </c>
       <c r="C6" s="7" t="n">
-        <v>950.637</v>
+        <v>925.901</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>618.908</v>
+        <v>602.86</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>664.164</v>
+        <v>653.185</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>744.343</v>
+        <v>723.439</v>
       </c>
       <c r="G6" s="8" t="n">
-        <v>61.1273</v>
+        <v>58.612</v>
       </c>
       <c r="H6" s="7" t="n">
-        <v>507.115</v>
+        <v>496.706</v>
       </c>
       <c r="I6" s="9" t="n">
         <f aca="false">SUM(B6:H6)/7</f>
-        <v>551.362042857143</v>
+        <v>538.086857142857</v>
       </c>
       <c r="J6" s="8" t="n">
         <v>468.949</v>
       </c>
       <c r="K6" s="10" t="n">
         <f aca="false">(I6/J6)-1</f>
-        <v>0.175739883989821</v>
+        <v>0.147431505649564</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -652,36 +652,36 @@
         <v>14</v>
       </c>
       <c r="B7" s="7" t="n">
-        <v>265.951</v>
+        <v>258.675</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>567.745</v>
+        <v>553.716</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>391.806</v>
+        <v>378.746</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>379.36</v>
+        <v>368.918</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>421.197</v>
+        <v>408.785</v>
       </c>
       <c r="G7" s="8" t="n">
-        <v>60.6278</v>
+        <v>59.2679</v>
       </c>
       <c r="H7" s="7" t="n">
-        <v>342.717</v>
+        <v>335.3</v>
       </c>
       <c r="I7" s="9" t="n">
         <f aca="false">SUM(B7:H7)/7</f>
-        <v>347.057685714286</v>
+        <v>337.6297</v>
       </c>
       <c r="J7" s="8" t="n">
         <v>301.539</v>
       </c>
       <c r="K7" s="10" t="n">
         <f aca="false">(I7/J7)-1</f>
-        <v>0.15095455551118</v>
+        <v>0.119688332189203</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -689,36 +689,36 @@
         <v>15</v>
       </c>
       <c r="B8" s="7" t="n">
-        <v>144.739</v>
+        <v>137.763</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>396.17</v>
+        <v>390.558</v>
       </c>
       <c r="D8" s="7" t="n">
-        <v>257.282</v>
+        <v>252.185</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>281.171</v>
+        <v>276.99</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>374.782</v>
+        <v>359.026</v>
       </c>
       <c r="G8" s="8" t="n">
-        <v>61.1995</v>
+        <v>59.5049</v>
       </c>
       <c r="H8" s="7" t="n">
-        <v>259.281</v>
+        <v>253.543</v>
       </c>
       <c r="I8" s="9" t="n">
         <f aca="false">SUM(B8:H8)/7</f>
-        <v>253.517785714286</v>
+        <v>247.081414285714</v>
       </c>
       <c r="J8" s="8" t="n">
         <v>221.611</v>
       </c>
       <c r="K8" s="10" t="n">
         <f aca="false">(I8/J8)-1</f>
-        <v>0.143976543196347</v>
+        <v>0.114932987467744</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,36 +739,36 @@
         <v>16</v>
       </c>
       <c r="B10" s="7" t="n">
-        <v>579.435</v>
+        <v>585.409</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>1765.62</v>
+        <v>1784.68</v>
       </c>
       <c r="D10" s="7" t="n">
-        <v>1120.32</v>
+        <v>1130.81</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>1281.94</v>
+        <v>1296.38</v>
       </c>
       <c r="F10" s="7" t="n">
-        <v>1369.87</v>
+        <v>1385.82</v>
       </c>
       <c r="G10" s="7" t="n">
-        <v>102.905</v>
+        <v>104.225</v>
       </c>
       <c r="H10" s="7" t="n">
-        <v>977.497</v>
+        <v>988.053</v>
       </c>
       <c r="I10" s="9" t="n">
         <f aca="false">SUM(B10:H10)/7</f>
-        <v>1028.22671428571</v>
+        <v>1039.33957142857</v>
       </c>
       <c r="J10" s="8" t="n">
         <v>1171.891</v>
       </c>
       <c r="K10" s="10" t="n">
         <f aca="false">(I10/J10)-1</f>
-        <v>-0.122591850022132</v>
+        <v>-0.113109008065962</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -776,36 +776,36 @@
         <v>17</v>
       </c>
       <c r="B11" s="7" t="n">
-        <v>700.461</v>
+        <v>695.314</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>2141.06</v>
+        <v>2115.84</v>
       </c>
       <c r="D11" s="7" t="n">
-        <v>1359.14</v>
+        <v>1344.33</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>1554.7</v>
+        <v>1537.69</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>1657.38</v>
+        <v>1637.99</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>118.33</v>
+        <v>118.636</v>
       </c>
       <c r="H11" s="7" t="n">
-        <v>1178.57</v>
+        <v>1167.83</v>
       </c>
       <c r="I11" s="9" t="n">
         <f aca="false">SUM(B11:H11)/7</f>
-        <v>1244.23442857143</v>
+        <v>1231.09</v>
       </c>
       <c r="J11" s="8" t="n">
         <v>1281.872</v>
       </c>
       <c r="K11" s="10" t="n">
         <f aca="false">(I11/J11)-1</f>
-        <v>-0.029361411614086</v>
+        <v>-0.0396154998314964</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -813,36 +813,36 @@
         <v>18</v>
       </c>
       <c r="B12" s="7" t="n">
-        <v>558.76</v>
+        <v>552.379</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>1319.37</v>
+        <v>1300.79</v>
       </c>
       <c r="D12" s="7" t="n">
-        <v>849.55</v>
+        <v>840.607</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>879.928</v>
+        <v>879.271</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>947.562</v>
+        <v>941.473</v>
       </c>
       <c r="G12" s="7" t="n">
-        <v>119.189</v>
+        <v>119.391</v>
       </c>
       <c r="H12" s="7" t="n">
-        <v>783.515</v>
+        <v>777.403</v>
       </c>
       <c r="I12" s="9" t="n">
         <f aca="false">SUM(B12:H12)/7</f>
-        <v>779.696285714286</v>
+        <v>773.044857142857</v>
       </c>
       <c r="J12" s="8" t="n">
         <v>792.494</v>
       </c>
       <c r="K12" s="10" t="n">
         <f aca="false">(I12/J12)-1</f>
-        <v>-0.0161486576374259</v>
+        <v>-0.0245416909871153</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -850,36 +850,36 @@
         <v>19</v>
       </c>
       <c r="B13" s="7" t="n">
-        <v>303.424</v>
+        <v>303.327</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>862.512</v>
+        <v>871.291</v>
       </c>
       <c r="D13" s="7" t="n">
-        <v>553.04</v>
+        <v>549.807</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>605.776</v>
+        <v>609.045</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>809.138</v>
+        <v>790.319</v>
       </c>
       <c r="G13" s="7" t="n">
-        <v>118.089</v>
+        <v>118.824</v>
       </c>
       <c r="H13" s="7" t="n">
-        <v>535.424</v>
+        <v>536.265</v>
       </c>
       <c r="I13" s="9" t="n">
         <f aca="false">SUM(B13:H13)/7</f>
-        <v>541.057571428571</v>
+        <v>539.839714285714</v>
       </c>
       <c r="J13" s="8" t="n">
         <v>523.44242857</v>
       </c>
       <c r="K13" s="10" t="n">
         <f aca="false">(I13/J13)-1</f>
-        <v>0.0336524933729474</v>
+        <v>0.0313258628279527</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -900,36 +900,36 @@
         <v>20</v>
       </c>
       <c r="B15" s="7" t="n">
-        <v>66.4722</v>
+        <v>67.1038</v>
       </c>
       <c r="C15" s="7" t="n">
-        <v>14.3007</v>
+        <v>14.0974</v>
       </c>
       <c r="D15" s="7" t="n">
-        <v>66.8696</v>
+        <v>66.0766</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>86.6526</v>
+        <v>87.3611</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>14.0116</v>
+        <v>13.7784</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>41.5069</v>
+        <v>41.0711</v>
       </c>
       <c r="H15" s="7" t="n">
-        <v>16.1892</v>
+        <v>15.6702</v>
       </c>
       <c r="I15" s="9" t="n">
         <f aca="false">SUM(B15:H15)/7</f>
-        <v>43.7146857142857</v>
+        <v>43.5940857142857</v>
       </c>
       <c r="J15" s="8" t="n">
         <v>42.422</v>
       </c>
       <c r="K15" s="10" t="n">
         <f aca="false">(I15/J15)-1</f>
-        <v>0.0304720596456018</v>
+        <v>0.0276291950941896</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,36 +937,36 @@
         <v>21</v>
       </c>
       <c r="B16" s="7" t="n">
-        <v>78.1183</v>
+        <v>77.0635</v>
       </c>
       <c r="C16" s="7" t="n">
-        <v>15</v>
+        <v>14.1206</v>
       </c>
       <c r="D16" s="7" t="n">
-        <v>69.1614</v>
+        <v>65.6052</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>97.4225</v>
+        <v>97.2278</v>
       </c>
       <c r="F16" s="7" t="n">
-        <v>14.7451</v>
+        <v>13.8608</v>
       </c>
       <c r="G16" s="7" t="n">
-        <v>42.8746</v>
+        <v>40.5748</v>
       </c>
       <c r="H16" s="7" t="n">
-        <v>16.8262</v>
+        <v>15.9845</v>
       </c>
       <c r="I16" s="9" t="n">
         <f aca="false">SUM(B16:H16)/7</f>
-        <v>47.7354428571429</v>
+        <v>46.3481714285714</v>
       </c>
       <c r="J16" s="8" t="n">
         <v>44.322</v>
       </c>
       <c r="K16" s="10" t="n">
         <f aca="false">(I16/J16)-1</f>
-        <v>0.0770146396178615</v>
+        <v>0.0457148014207713</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -974,36 +974,36 @@
         <v>22</v>
       </c>
       <c r="B17" s="7" t="n">
-        <v>63.3458</v>
+        <v>63.0044</v>
       </c>
       <c r="C17" s="7" t="n">
-        <v>14.8259</v>
+        <v>14.0626</v>
       </c>
       <c r="D17" s="7" t="n">
-        <v>67.879</v>
+        <v>64.3938</v>
       </c>
       <c r="E17" s="7" t="n">
-        <v>83.0631</v>
+        <v>84.1081</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>14.9422</v>
+        <v>13.83</v>
       </c>
       <c r="G17" s="7" t="n">
-        <v>43.1869</v>
+        <v>40.2345</v>
       </c>
       <c r="H17" s="7" t="n">
-        <v>16.7145</v>
+        <v>15.8326</v>
       </c>
       <c r="I17" s="9" t="n">
         <f aca="false">SUM(B17:H17)/7</f>
-        <v>43.4224857142857</v>
+        <v>42.2094285714286</v>
       </c>
       <c r="J17" s="8" t="n">
         <v>40.1137</v>
       </c>
       <c r="K17" s="10" t="n">
         <f aca="false">(I17/J17)-1</f>
-        <v>0.0824851787365841</v>
+        <v>0.052244708701231</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1011,36 +1011,36 @@
         <v>23</v>
       </c>
       <c r="B18" s="7" t="n">
-        <v>55.1594</v>
+        <v>54.4809</v>
       </c>
       <c r="C18" s="7" t="n">
-        <v>14.9407</v>
+        <v>14.1876</v>
       </c>
       <c r="D18" s="7" t="n">
-        <v>67.6535</v>
+        <v>63.5977</v>
       </c>
       <c r="E18" s="7" t="n">
-        <v>75.6493</v>
+        <v>76.2844</v>
       </c>
       <c r="F18" s="7" t="n">
-        <v>14.5649</v>
+        <v>13.934</v>
       </c>
       <c r="G18" s="7" t="n">
-        <v>42.9957</v>
+        <v>40.3294</v>
       </c>
       <c r="H18" s="7" t="n">
-        <v>16.8016</v>
+        <v>15.8998</v>
       </c>
       <c r="I18" s="9" t="n">
         <f aca="false">SUM(B18:H18)/7</f>
-        <v>41.1093</v>
+        <v>39.8162571428571</v>
       </c>
       <c r="J18" s="8" t="n">
         <v>37.90281</v>
       </c>
       <c r="K18" s="10" t="n">
         <f aca="false">(I18/J18)-1</f>
-        <v>0.0845976855014179</v>
+        <v>0.0504829890674896</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1061,136 +1061,148 @@
         <v>24</v>
       </c>
       <c r="B20" s="7" t="n">
-        <v>124.895</v>
+        <v>124.732</v>
       </c>
       <c r="C20" s="7" t="n">
-        <v>2.17091</v>
+        <v>2.26409</v>
       </c>
       <c r="D20" s="7" t="n">
-        <v>59.3932</v>
+        <v>58.8731</v>
       </c>
       <c r="E20" s="7" t="n">
-        <v>141.955</v>
+        <v>142.278</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>1.74574</v>
+        <v>1.83863</v>
       </c>
       <c r="G20" s="7" t="n">
-        <v>27.1752</v>
+        <v>26.8442</v>
       </c>
       <c r="H20" s="7" t="n">
-        <v>1.74108</v>
+        <v>1.77557</v>
       </c>
       <c r="I20" s="9" t="n">
         <f aca="false">SUM(B20:H20)/7</f>
-        <v>51.29659</v>
+        <v>51.22937</v>
       </c>
       <c r="J20" s="8" t="n">
         <v>115.3811</v>
       </c>
-      <c r="K20" s="10"/>
+      <c r="K20" s="10" t="n">
+        <f aca="false">(I20/J20)-1</f>
+        <v>-0.555998599423996</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="7" t="n">
-        <v>150.987</v>
+        <v>151.84</v>
       </c>
       <c r="C21" s="7" t="n">
-        <v>2.67819</v>
+        <v>2.73493</v>
       </c>
       <c r="D21" s="7" t="n">
-        <v>63.8564</v>
+        <v>61.1336</v>
       </c>
       <c r="E21" s="7" t="n">
-        <v>167.708</v>
+        <v>169.334</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>2.10977</v>
+        <v>2.16492</v>
       </c>
       <c r="G21" s="7" t="n">
-        <v>28.5905</v>
+        <v>27.1858</v>
       </c>
       <c r="H21" s="7" t="n">
-        <v>1.81897</v>
+        <v>1.93619</v>
       </c>
       <c r="I21" s="9" t="n">
         <f aca="false">SUM(B21:H21)/7</f>
-        <v>59.6784042857143</v>
+        <v>59.4756342857143</v>
       </c>
       <c r="J21" s="8" t="n">
         <v>122.6784</v>
       </c>
-      <c r="K21" s="10"/>
+      <c r="K21" s="10" t="n">
+        <f aca="false">(I21/J21)-1</f>
+        <v>-0.515190658781707</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="7" t="n">
-        <v>124.568</v>
+        <v>124.271</v>
       </c>
       <c r="C22" s="7" t="n">
-        <v>2.55559</v>
+        <v>2.56356</v>
       </c>
       <c r="D22" s="7" t="n">
-        <v>62.0564</v>
+        <v>60.7799</v>
       </c>
       <c r="E22" s="7" t="n">
-        <v>142.436</v>
+        <v>142.655</v>
       </c>
       <c r="F22" s="7" t="n">
-        <v>1.93012</v>
+        <v>2.07807</v>
       </c>
       <c r="G22" s="7" t="n">
-        <v>28.6031</v>
+        <v>27.0132</v>
       </c>
       <c r="H22" s="7" t="n">
-        <v>1.88132</v>
+        <v>2.02574</v>
       </c>
       <c r="I22" s="9" t="n">
         <f aca="false">SUM(B22:H22)/7</f>
-        <v>52.0043614285714</v>
+        <v>51.6266385714286</v>
       </c>
       <c r="J22" s="8" t="n">
         <v>93.952357</v>
       </c>
-      <c r="K22" s="10"/>
+      <c r="K22" s="10" t="n">
+        <f aca="false">(I22/J22)-1</f>
+        <v>-0.450501932895323</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="7" t="n">
-        <v>88.8514</v>
+        <v>89.6743</v>
       </c>
       <c r="C23" s="7" t="n">
-        <v>2.39916</v>
+        <v>2.25279</v>
       </c>
       <c r="D23" s="7" t="n">
-        <v>60.1702</v>
+        <v>56.548</v>
       </c>
       <c r="E23" s="7" t="n">
-        <v>109.319</v>
+        <v>112.102</v>
       </c>
       <c r="F23" s="7" t="n">
-        <v>2.08235</v>
+        <v>2.04141</v>
       </c>
       <c r="G23" s="7" t="n">
-        <v>28.5608</v>
+        <v>27.0825</v>
       </c>
       <c r="H23" s="7" t="n">
-        <v>2.09676</v>
+        <v>1.87561</v>
       </c>
       <c r="I23" s="9" t="n">
         <f aca="false">SUM(B23:H23)/7</f>
-        <v>41.9256671428571</v>
+        <v>41.6538014285714</v>
       </c>
       <c r="J23" s="8" t="n">
         <v>84.2521</v>
       </c>
-      <c r="K23" s="10"/>
+      <c r="K23" s="10" t="n">
+        <f aca="false">(I23/J23)-1</f>
+        <v>-0.505605184576154</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
@@ -1319,36 +1331,36 @@
         <v>12</v>
       </c>
       <c r="B30" s="21" t="n">
-        <v>1534.06</v>
+        <v>1531.38</v>
       </c>
       <c r="C30" s="21" t="n">
-        <v>1498.56</v>
+        <v>1496.37</v>
       </c>
       <c r="D30" s="21" t="n">
-        <v>325.092</v>
+        <v>325.027</v>
       </c>
       <c r="E30" s="21" t="n">
-        <v>2424.89</v>
+        <v>2424.84</v>
       </c>
       <c r="F30" s="21" t="n">
-        <v>1446.58</v>
+        <v>1439.24</v>
       </c>
       <c r="G30" s="21" t="n">
-        <v>1722.55</v>
+        <v>1722.21</v>
       </c>
       <c r="H30" s="21" t="n">
-        <v>982.626</v>
+        <v>981.357</v>
       </c>
       <c r="I30" s="19" t="n">
         <f aca="false">SUM(B30:H30)/7</f>
-        <v>1419.194</v>
+        <v>1417.20342857143</v>
       </c>
       <c r="J30" s="21" t="n">
         <v>1751.58</v>
       </c>
       <c r="K30" s="10" t="n">
         <f aca="false">(I30/J30)-1</f>
-        <v>-0.189763527786342</v>
+        <v>-0.190899971128108</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1356,36 +1368,36 @@
         <v>13</v>
       </c>
       <c r="B31" s="21" t="n">
-        <v>3472.51</v>
+        <v>3356.16</v>
       </c>
       <c r="C31" s="21" t="n">
-        <v>3217.03</v>
+        <v>3121.09</v>
       </c>
       <c r="D31" s="21" t="n">
-        <v>669.042</v>
+        <v>647.509</v>
       </c>
       <c r="E31" s="21" t="n">
-        <v>5337.8</v>
+        <v>5170.61</v>
       </c>
       <c r="F31" s="21" t="n">
-        <v>3145.39</v>
+        <v>3049.37</v>
       </c>
       <c r="G31" s="21" t="n">
-        <v>3901.64</v>
+        <v>3770.54</v>
       </c>
       <c r="H31" s="21" t="n">
-        <v>2157.13</v>
+        <v>2094.09</v>
       </c>
       <c r="I31" s="19" t="n">
         <f aca="false">SUM(B31:H31)/7</f>
-        <v>3128.64885714286</v>
+        <v>3029.90985714286</v>
       </c>
       <c r="J31" s="21" t="n">
         <v>2600.249</v>
       </c>
       <c r="K31" s="10" t="n">
         <f aca="false">(I31/J31)-1</f>
-        <v>0.20321125290034</v>
+        <v>0.1652383510744</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1393,36 +1405,36 @@
         <v>14</v>
       </c>
       <c r="B32" s="21" t="n">
-        <v>1972.19</v>
+        <v>1918.96</v>
       </c>
       <c r="C32" s="21" t="n">
-        <v>2006.02</v>
+        <v>1947.7</v>
       </c>
       <c r="D32" s="21" t="n">
-        <v>389.955</v>
+        <v>382.288</v>
       </c>
       <c r="E32" s="21" t="n">
-        <v>3064.94</v>
+        <v>2979.18</v>
       </c>
       <c r="F32" s="21" t="n">
-        <v>1776.34</v>
+        <v>1718.3</v>
       </c>
       <c r="G32" s="21" t="n">
-        <v>2189.2</v>
+        <v>2121.78</v>
       </c>
       <c r="H32" s="21" t="n">
-        <v>1306.61</v>
+        <v>1264.91</v>
       </c>
       <c r="I32" s="19" t="n">
         <f aca="false">SUM(B32:H32)/7</f>
-        <v>1815.03642857143</v>
+        <v>1761.874</v>
       </c>
       <c r="J32" s="21" t="n">
         <v>1539.83</v>
       </c>
       <c r="K32" s="10" t="n">
         <f aca="false">(I32/J32)-1</f>
-        <v>0.178725202503802</v>
+        <v>0.144200333803082</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1430,36 +1442,36 @@
         <v>15</v>
       </c>
       <c r="B33" s="21" t="n">
-        <v>1437.92</v>
+        <v>1404.39</v>
       </c>
       <c r="C33" s="21" t="n">
-        <v>1387.5</v>
+        <v>1353.59</v>
       </c>
       <c r="D33" s="21" t="n">
-        <v>291.938</v>
+        <v>284.667</v>
       </c>
       <c r="E33" s="21" t="n">
-        <v>2082.16</v>
+        <v>2033.1</v>
       </c>
       <c r="F33" s="21" t="n">
-        <v>1149.15</v>
+        <v>1117.03</v>
       </c>
       <c r="G33" s="21" t="n">
-        <v>1348.81</v>
+        <v>1335.2</v>
       </c>
       <c r="H33" s="21" t="n">
-        <v>813.147</v>
+        <v>787.068</v>
       </c>
       <c r="I33" s="19" t="n">
         <f aca="false">SUM(B33:H33)/7</f>
-        <v>1215.80357142857</v>
+        <v>1187.86357142857</v>
       </c>
       <c r="J33" s="21" t="n">
         <v>1066.35</v>
       </c>
       <c r="K33" s="10" t="n">
         <f aca="false">(I33/J33)-1</f>
-        <v>0.140154331531459</v>
+        <v>0.113952802952662</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1480,36 +1492,36 @@
         <v>16</v>
       </c>
       <c r="B35" s="21" t="n">
-        <v>5741.76</v>
+        <v>5773.25</v>
       </c>
       <c r="C35" s="21" t="n">
-        <v>5852.12</v>
+        <v>5913.83</v>
       </c>
       <c r="D35" s="21" t="n">
-        <v>1228.11</v>
+        <v>1241.94</v>
       </c>
       <c r="E35" s="21" t="n">
-        <v>9250.27</v>
+        <v>9325.29</v>
       </c>
       <c r="F35" s="21" t="n">
-        <v>5585.22</v>
+        <v>5634.12</v>
       </c>
       <c r="G35" s="21" t="n">
-        <v>6422.18</v>
+        <v>6448.26</v>
       </c>
       <c r="H35" s="21" t="n">
-        <v>3731.95</v>
+        <v>3756.77</v>
       </c>
       <c r="I35" s="19" t="n">
         <f aca="false">SUM(B35:H35)/7</f>
-        <v>5401.65857142857</v>
+        <v>5441.92285714286</v>
       </c>
       <c r="J35" s="21" t="n">
         <v>6223.6857</v>
       </c>
       <c r="K35" s="10" t="n">
         <f aca="false">(I35/J35)-1</f>
-        <v>-0.132080437251423</v>
+        <v>-0.125610912976718</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1517,36 +1529,36 @@
         <v>17</v>
       </c>
       <c r="B36" s="21" t="n">
-        <v>7011.94</v>
+        <v>6898.28</v>
       </c>
       <c r="C36" s="21" t="n">
-        <v>7166.93</v>
+        <v>7045.01</v>
       </c>
       <c r="D36" s="21" t="n">
-        <v>1502</v>
+        <v>1478.69</v>
       </c>
       <c r="E36" s="21" t="n">
-        <v>11303.4</v>
+        <v>11113.4</v>
       </c>
       <c r="F36" s="21" t="n">
-        <v>6820.25</v>
+        <v>6702.05</v>
       </c>
       <c r="G36" s="21" t="n">
-        <v>7840.73</v>
+        <v>7697.36</v>
       </c>
       <c r="H36" s="21" t="n">
-        <v>4550.16</v>
+        <v>4467.92</v>
       </c>
       <c r="I36" s="19" t="n">
         <f aca="false">SUM(B36:H36)/7</f>
-        <v>6599.34428571429</v>
+        <v>6486.10142857143</v>
       </c>
       <c r="J36" s="21" t="n">
         <v>6914.8786</v>
       </c>
       <c r="K36" s="10" t="n">
         <f aca="false">(I36/J36)-1</f>
-        <v>-0.0456312153167394</v>
+        <v>-0.0620079102225414</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1554,36 +1566,36 @@
         <v>18</v>
       </c>
       <c r="B37" s="21" t="n">
-        <v>4060.06</v>
+        <v>3986.5</v>
       </c>
       <c r="C37" s="21" t="n">
-        <v>4491.93</v>
+        <v>4411.48</v>
       </c>
       <c r="D37" s="21" t="n">
-        <v>898.095</v>
+        <v>885.16</v>
       </c>
       <c r="E37" s="21" t="n">
-        <v>6568.8</v>
+        <v>6481.24</v>
       </c>
       <c r="F37" s="21" t="n">
-        <v>4007.09</v>
+        <v>3863.08</v>
       </c>
       <c r="G37" s="21" t="n">
-        <v>4655.09</v>
+        <v>4476.77</v>
       </c>
       <c r="H37" s="21" t="n">
-        <v>2811.07</v>
+        <v>2726.37</v>
       </c>
       <c r="I37" s="19" t="n">
         <f aca="false">SUM(B37:H37)/7</f>
-        <v>3927.44785714286</v>
+        <v>3832.94285714286</v>
       </c>
       <c r="J37" s="21" t="n">
         <v>4091.83929</v>
       </c>
       <c r="K37" s="10" t="n">
         <f aca="false">(I37/J37)-1</f>
-        <v>-0.040175437304905</v>
+        <v>-0.0632714079191372</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1591,36 +1603,36 @@
         <v>19</v>
       </c>
       <c r="B38" s="21" t="n">
-        <v>3039.76</v>
+        <v>3005.96</v>
       </c>
       <c r="C38" s="21" t="n">
-        <v>3048.34</v>
+        <v>3010.63</v>
       </c>
       <c r="D38" s="21" t="n">
-        <v>659.749</v>
+        <v>655.106</v>
       </c>
       <c r="E38" s="21" t="n">
-        <v>4541.36</v>
+        <v>4515.46</v>
       </c>
       <c r="F38" s="21" t="n">
-        <v>2531.61</v>
+        <v>2563.4</v>
       </c>
       <c r="G38" s="21" t="n">
-        <v>3073.81</v>
+        <v>3043.86</v>
       </c>
       <c r="H38" s="21" t="n">
-        <v>1742.21</v>
+        <v>1743.42</v>
       </c>
       <c r="I38" s="19" t="n">
         <f aca="false">SUM(B38:H38)/7</f>
-        <v>2662.40557142857</v>
+        <v>2648.26228571429</v>
       </c>
       <c r="J38" s="21" t="n">
         <v>2657.9591</v>
       </c>
       <c r="K38" s="10" t="n">
         <f aca="false">(I38/J38)-1</f>
-        <v>0.0016728893339899</v>
+        <v>-0.00364821802025261</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1641,36 +1653,36 @@
         <v>20</v>
       </c>
       <c r="B40" s="21" t="n">
-        <v>33.4883</v>
+        <v>33.7336</v>
       </c>
       <c r="C40" s="21" t="n">
-        <v>96.3956</v>
+        <v>96.649</v>
       </c>
       <c r="D40" s="21" t="n">
-        <v>30.865</v>
+        <v>30.5007</v>
       </c>
       <c r="E40" s="21" t="n">
-        <v>16.4513</v>
+        <v>16.5441</v>
       </c>
       <c r="F40" s="21" t="n">
-        <v>78.3321</v>
+        <v>78.2257</v>
       </c>
       <c r="G40" s="21" t="n">
-        <v>16.2406</v>
+        <v>16.1397</v>
       </c>
       <c r="H40" s="21" t="n">
-        <v>50.6125</v>
+        <v>50.3506</v>
       </c>
       <c r="I40" s="19" t="n">
         <f aca="false">SUM(B40:H40)/7</f>
-        <v>46.0550571428571</v>
+        <v>46.0204857142857</v>
       </c>
       <c r="J40" s="21" t="n">
         <v>42.57528</v>
       </c>
       <c r="K40" s="10" t="n">
         <f aca="false">(I40/J40)-1</f>
-        <v>0.0817323372355305</v>
+        <v>0.0809203301607346</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1678,36 +1690,36 @@
         <v>21</v>
       </c>
       <c r="B41" s="21" t="n">
-        <v>35.123</v>
+        <v>35.1826</v>
       </c>
       <c r="C41" s="21" t="n">
-        <v>116.56</v>
+        <v>113.063</v>
       </c>
       <c r="D41" s="21" t="n">
-        <v>31.571</v>
+        <v>30.3421</v>
       </c>
       <c r="E41" s="21" t="n">
-        <v>17.3772</v>
+        <v>16.344</v>
       </c>
       <c r="F41" s="21" t="n">
-        <v>88.6897</v>
+        <v>85.3827</v>
       </c>
       <c r="G41" s="21" t="n">
-        <v>16.95</v>
+        <v>16.2044</v>
       </c>
       <c r="H41" s="21" t="n">
-        <v>52.5087</v>
+        <v>49.8163</v>
       </c>
       <c r="I41" s="19" t="n">
         <f aca="false">SUM(B41:H41)/7</f>
-        <v>51.2542285714286</v>
+        <v>49.4764428571429</v>
       </c>
       <c r="J41" s="21" t="n">
         <v>45.37122</v>
       </c>
       <c r="K41" s="10" t="n">
         <f aca="false">(I41/J41)-1</f>
-        <v>0.129663883215584</v>
+        <v>0.0904807685828781</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1715,36 +1727,36 @@
         <v>22</v>
       </c>
       <c r="B42" s="21" t="n">
-        <v>33.7774</v>
+        <v>33.7637</v>
       </c>
       <c r="C42" s="21" t="n">
-        <v>86.8294</v>
+        <v>84.6815</v>
       </c>
       <c r="D42" s="21" t="n">
-        <v>31.9587</v>
+        <v>30.9041</v>
       </c>
       <c r="E42" s="21" t="n">
-        <v>17.1433</v>
+        <v>16.4148</v>
       </c>
       <c r="F42" s="21" t="n">
-        <v>75.4742</v>
+        <v>72.5352</v>
       </c>
       <c r="G42" s="21" t="n">
-        <v>16.981</v>
+        <v>16.2044</v>
       </c>
       <c r="H42" s="21" t="n">
-        <v>52.0194</v>
+        <v>49.6481</v>
       </c>
       <c r="I42" s="19" t="n">
         <f aca="false">SUM(B42:H42)/7</f>
-        <v>44.8833428571429</v>
+        <v>43.4502571428571</v>
       </c>
       <c r="J42" s="21" t="n">
         <v>39.47671</v>
       </c>
       <c r="K42" s="10" t="n">
         <f aca="false">(I42/J42)-1</f>
-        <v>0.136957534129436</v>
+        <v>0.100655478707753</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1752,36 +1764,36 @@
         <v>23</v>
       </c>
       <c r="B43" s="21" t="n">
-        <v>32.6625</v>
+        <v>33.3511</v>
       </c>
       <c r="C43" s="21" t="n">
-        <v>71.0576</v>
+        <v>69.1457</v>
       </c>
       <c r="D43" s="21" t="n">
-        <v>31.597</v>
+        <v>30.3055</v>
       </c>
       <c r="E43" s="21" t="n">
-        <v>17.3827</v>
+        <v>16.6135</v>
       </c>
       <c r="F43" s="21" t="n">
-        <v>68.3382</v>
+        <v>65.4464</v>
       </c>
       <c r="G43" s="21" t="n">
-        <v>17.2601</v>
+        <v>16.218</v>
       </c>
       <c r="H43" s="21" t="n">
-        <v>61.9078</v>
+        <v>49.7921</v>
       </c>
       <c r="I43" s="19" t="n">
         <f aca="false">SUM(B43:H43)/7</f>
-        <v>42.8865571428571</v>
+        <v>40.1246142857143</v>
       </c>
       <c r="J43" s="21" t="n">
         <v>35.425657</v>
       </c>
       <c r="K43" s="10" t="n">
         <f aca="false">(I43/J43)-1</f>
-        <v>0.210607248380944</v>
+        <v>0.132642770343378</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1801,32 +1813,36 @@
         <v>24</v>
       </c>
       <c r="B45" s="21" t="n">
-        <v>37.2593</v>
+        <v>37.049</v>
       </c>
       <c r="C45" s="21" t="n">
-        <v>425.888</v>
+        <v>427.335</v>
       </c>
       <c r="D45" s="21" t="n">
-        <v>16.4605</v>
+        <v>16.3821</v>
       </c>
       <c r="E45" s="21" t="n">
-        <v>3.93227</v>
+        <v>3.89288</v>
       </c>
       <c r="F45" s="21" t="n">
-        <v>206.357</v>
+        <v>206.016</v>
       </c>
       <c r="G45" s="21" t="n">
-        <v>3.90328</v>
+        <v>3.83699</v>
       </c>
       <c r="H45" s="21" t="n">
-        <v>40.5695</v>
+        <v>40.4504</v>
       </c>
       <c r="I45" s="19" t="n">
         <f aca="false">SUM(B45:H45)/7</f>
-        <v>104.909978571429</v>
+        <v>104.994624285714</v>
       </c>
       <c r="J45" s="21" t="n">
         <v>272.758</v>
+      </c>
+      <c r="K45" s="10" t="n">
+        <f aca="false">(I45/J45)-1</f>
+        <v>-0.615063080511977</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1834,32 +1850,36 @@
         <v>25</v>
       </c>
       <c r="B46" s="21" t="n">
-        <v>44.0525</v>
+        <v>44.2494</v>
       </c>
       <c r="C46" s="21" t="n">
-        <v>571.579</v>
+        <v>568.712</v>
       </c>
       <c r="D46" s="21" t="n">
-        <v>17.3062</v>
+        <v>16.5446</v>
       </c>
       <c r="E46" s="21" t="n">
-        <v>4.27643</v>
+        <v>4.03327</v>
       </c>
       <c r="F46" s="21" t="n">
-        <v>270.883</v>
+        <v>266.538</v>
       </c>
       <c r="G46" s="21" t="n">
-        <v>4.33577</v>
+        <v>4.23875</v>
       </c>
       <c r="H46" s="21" t="n">
-        <v>43.812</v>
+        <v>41.6903</v>
       </c>
       <c r="I46" s="19" t="n">
         <f aca="false">SUM(B46:H46)/7</f>
-        <v>136.606414285714</v>
+        <v>135.14376</v>
       </c>
       <c r="J46" s="21" t="n">
         <v>311.0655</v>
+      </c>
+      <c r="K46" s="10" t="n">
+        <f aca="false">(I46/J46)-1</f>
+        <v>-0.565545648746004</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1867,32 +1887,36 @@
         <v>26</v>
       </c>
       <c r="B47" s="21" t="n">
-        <v>38.8767</v>
+        <v>38.9333</v>
       </c>
       <c r="C47" s="21" t="n">
-        <v>468.048</v>
+        <v>469.737</v>
       </c>
       <c r="D47" s="21" t="n">
-        <v>17.3798</v>
+        <v>16.5349</v>
       </c>
       <c r="E47" s="21" t="n">
-        <v>4.29809</v>
+        <v>4.05474</v>
       </c>
       <c r="F47" s="21" t="n">
-        <v>225.415</v>
+        <v>222.382</v>
       </c>
       <c r="G47" s="21" t="n">
-        <v>4.32729</v>
+        <v>4.1389</v>
       </c>
       <c r="H47" s="21" t="n">
-        <v>42.6659</v>
+        <v>41.4504</v>
       </c>
       <c r="I47" s="19" t="n">
         <f aca="false">SUM(B47:H47)/7</f>
-        <v>114.430111428571</v>
+        <v>113.890177142857</v>
       </c>
       <c r="J47" s="21" t="n">
         <v>209.080714</v>
+      </c>
+      <c r="K47" s="10" t="n">
+        <f aca="false">(I47/J47)-1</f>
+        <v>-0.455281288436497</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1900,32 +1924,36 @@
         <v>27</v>
       </c>
       <c r="B48" s="21" t="n">
-        <v>33.1055</v>
+        <v>33.6727</v>
       </c>
       <c r="C48" s="21" t="n">
-        <v>305.014</v>
+        <v>302.287</v>
       </c>
       <c r="D48" s="21" t="n">
-        <v>17.2652</v>
+        <v>16.6361</v>
       </c>
       <c r="E48" s="21" t="n">
-        <v>4.36025</v>
+        <v>4.09266</v>
       </c>
       <c r="F48" s="21" t="n">
-        <v>159.292</v>
+        <v>155.905</v>
       </c>
       <c r="G48" s="21" t="n">
-        <v>4.2948</v>
+        <v>4.11072</v>
       </c>
       <c r="H48" s="21" t="n">
-        <v>41.7435</v>
+        <v>39.9754</v>
       </c>
       <c r="I48" s="19" t="n">
         <f aca="false">SUM(B48:H48)/7</f>
-        <v>80.7250357142857</v>
+        <v>79.5256542857143</v>
       </c>
       <c r="J48" s="21" t="n">
         <v>159.7044</v>
+      </c>
+      <c r="K48" s="10" t="n">
+        <f aca="false">(I48/J48)-1</f>
+        <v>-0.502044688275875</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
